--- a/2021_State_Ranavirus_Data.xlsx
+++ b/2021_State_Ranavirus_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danij\Desktop\State_RV_Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danij\Desktop\Research\Grants\Funded\2021 Season\5000_SDGFP Inventory and Monitoring 2021\State_RV_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C1668E-4447-4B52-81EE-F8FA3E476ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320679D2-FF95-4066-830B-F80AF831F849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E8DC666-EB05-4C4C-9384-2C6A7D2A6223}"/>
   </bookViews>
@@ -1385,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663C2F35-F497-4B8F-B992-B6D9E2447E75}">
   <dimension ref="A1:O253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="I214" sqref="I214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,7 +5261,7 @@
         <v>131</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>131</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>131</v>
       </c>
       <c r="K214">
-        <v>0</v>
+        <v>9.1180000000000003</v>
       </c>
       <c r="L214">
         <v>0</v>
@@ -10893,7 +10893,7 @@
         <v>131</v>
       </c>
       <c r="K215">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="L215">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>131</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="L217">
         <v>0</v>
@@ -11025,7 +11025,7 @@
         <v>131</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="L218">
         <v>0</v>
@@ -11905,7 +11905,7 @@
         <v>131</v>
       </c>
       <c r="K238">
-        <v>0</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="L238">
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>131</v>
       </c>
       <c r="K241">
-        <v>0</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="L241">
         <v>0</v>
